--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,863 +417,886 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39583</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>1.144978573787081</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>0.9133058485940815</v>
+        <v>2.918510996763723</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>39583</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
+      <c r="C3">
+        <v>3.09825757489699</v>
+      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>0.4798839671706245</v>
+        <v>7.865470614547343</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>39948</v>
+        <v>39765</v>
       </c>
       <c r="B4">
+        <v>2008</v>
+      </c>
+      <c r="C4">
+        <v>1.381024225294869</v>
+      </c>
+      <c r="D4">
         <v>2009</v>
       </c>
-      <c r="C4">
-        <v>-0.964326611260069</v>
-      </c>
-      <c r="D4">
-        <v>2010</v>
-      </c>
       <c r="E4">
-        <v>-0.1828295556527637</v>
+        <v>4.264380119800992</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40130</v>
+        <v>39948</v>
       </c>
       <c r="B5">
         <v>2009</v>
       </c>
       <c r="C5">
-        <v>-1.120856461469888</v>
+        <v>-1.791203563722299</v>
       </c>
       <c r="D5">
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>0.3267723219585683</v>
+        <v>-6.760862998203643</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40310</v>
+        <v>40130</v>
       </c>
       <c r="B6">
+        <v>2009</v>
+      </c>
+      <c r="C6">
+        <v>-0.8792832172735965</v>
+      </c>
+      <c r="D6">
         <v>2010</v>
       </c>
-      <c r="C6">
-        <v>0.4542379593282408</v>
-      </c>
-      <c r="D6">
-        <v>2011</v>
-      </c>
       <c r="E6">
-        <v>0.9673802194150927</v>
+        <v>3.109784435759599</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>40494</v>
+        <v>40310</v>
       </c>
       <c r="B7">
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.2946875655135184</v>
+        <v>0.5799958470386946</v>
       </c>
       <c r="D7">
         <v>2011</v>
       </c>
       <c r="E7">
-        <v>0.1202051033304397</v>
+        <v>5.643342995751777</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>40676</v>
+        <v>40494</v>
       </c>
       <c r="B8">
+        <v>2010</v>
+      </c>
+      <c r="C8">
+        <v>0.9337833426867448</v>
+      </c>
+      <c r="D8">
         <v>2011</v>
       </c>
-      <c r="C8">
-        <v>1.343968752336533</v>
-      </c>
-      <c r="D8">
-        <v>2012</v>
-      </c>
       <c r="E8">
-        <v>1.205410808099971</v>
+        <v>2.730731696345146</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>40862</v>
+        <v>40676</v>
       </c>
       <c r="B9">
         <v>2011</v>
       </c>
       <c r="C9">
-        <v>1.242549344471122</v>
+        <v>3.181454202131073</v>
       </c>
       <c r="D9">
         <v>2012</v>
       </c>
       <c r="E9">
-        <v>1.711463070999564</v>
+        <v>4.38978860149748</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>41044</v>
+        <v>40862</v>
       </c>
       <c r="B10">
+        <v>2011</v>
+      </c>
+      <c r="C10">
+        <v>2.791140000794279</v>
+      </c>
+      <c r="D10">
         <v>2012</v>
       </c>
-      <c r="C10">
-        <v>1.154909844891772</v>
-      </c>
-      <c r="D10">
-        <v>2013</v>
-      </c>
       <c r="E10">
-        <v>1.609625625600009</v>
+        <v>1.683857142130885</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>41228</v>
+        <v>41044</v>
       </c>
       <c r="B11">
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>1.180122656701199</v>
+        <v>0.5930547804883668</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>1.331004227883059</v>
+        <v>-1.194610791900008</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>41409</v>
+        <v>41228</v>
       </c>
       <c r="B12">
+        <v>2012</v>
+      </c>
+      <c r="C12">
+        <v>0.4451370000809973</v>
+      </c>
+      <c r="D12">
         <v>2013</v>
       </c>
-      <c r="C12">
-        <v>0.9774320275524939</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
-      </c>
       <c r="E12">
-        <v>0.8024032016000104</v>
+        <v>-0.2532347529486723</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>41592</v>
+        <v>41409</v>
       </c>
       <c r="B13">
         <v>2013</v>
       </c>
       <c r="C13">
-        <v>1.381744454873757</v>
+        <v>-0.3951783438669754</v>
       </c>
       <c r="D13">
         <v>2014</v>
       </c>
       <c r="E13">
-        <v>1.810625225605977</v>
+        <v>0.03694906323863378</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>41774</v>
+        <v>41592</v>
       </c>
       <c r="B14">
+        <v>2013</v>
+      </c>
+      <c r="C14">
+        <v>0.2545814083968478</v>
+      </c>
+      <c r="D14">
         <v>2014</v>
       </c>
-      <c r="C14">
-        <v>1.557111828187074</v>
-      </c>
-      <c r="D14">
-        <v>2015</v>
-      </c>
       <c r="E14">
-        <v>2.015050062499935</v>
+        <v>2.553470871380537</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>41957</v>
+        <v>41774</v>
       </c>
       <c r="B15">
         <v>2014</v>
       </c>
       <c r="C15">
-        <v>1.404039427736437</v>
+        <v>3.292216014290039</v>
       </c>
       <c r="D15">
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>1.772719455842808</v>
+        <v>7.617133650412211</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>42137</v>
+        <v>41957</v>
       </c>
       <c r="B16">
+        <v>2014</v>
+      </c>
+      <c r="C16">
+        <v>1.297015177357297</v>
+      </c>
+      <c r="D16">
         <v>2015</v>
       </c>
-      <c r="C16">
-        <v>1.625395892470793</v>
-      </c>
-      <c r="D16">
-        <v>2016</v>
-      </c>
       <c r="E16">
-        <v>1.702833213453658</v>
+        <v>-0.434146007584113</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>42321</v>
+        <v>42137</v>
       </c>
       <c r="B17">
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.593617458167307</v>
+        <v>1.670328650030184</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>1.715807300410166</v>
+        <v>2.037906845818616</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>42503</v>
+        <v>42321</v>
       </c>
       <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>1.365576377841027</v>
+      </c>
+      <c r="D18">
         <v>2016</v>
       </c>
-      <c r="C18">
-        <v>2.089970671321684</v>
-      </c>
-      <c r="D18">
-        <v>2017</v>
-      </c>
       <c r="E18">
-        <v>2.188369315221617</v>
+        <v>2.383242923544526</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>42689</v>
+        <v>42503</v>
       </c>
       <c r="B19">
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>1.885212754467758</v>
+        <v>2.562791874943371</v>
       </c>
       <c r="D19">
         <v>2017</v>
       </c>
       <c r="E19">
-        <v>1.601940613195363</v>
+        <v>3.265947405805814</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>42867</v>
+        <v>42689</v>
       </c>
       <c r="B20">
+        <v>2016</v>
+      </c>
+      <c r="C20">
+        <v>2.204449574611278</v>
+      </c>
+      <c r="D20">
         <v>2017</v>
       </c>
-      <c r="C20">
-        <v>1.846039903575125</v>
-      </c>
-      <c r="D20">
-        <v>2018</v>
-      </c>
       <c r="E20">
-        <v>1.960377863529938</v>
+        <v>1.688977015142101</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>43053</v>
+        <v>42867</v>
       </c>
       <c r="B21">
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.877372574190161</v>
+        <v>1.526411006965533</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>2.141095556653494</v>
+        <v>0.6601843988560674</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>43145</v>
+        <v>43053</v>
       </c>
       <c r="B22">
+        <v>2017</v>
+      </c>
+      <c r="C22">
+        <v>2.18621550610123</v>
+      </c>
+      <c r="D22">
         <v>2018</v>
       </c>
-      <c r="C22">
-        <v>2.297547354951734</v>
-      </c>
-      <c r="D22">
-        <v>2019</v>
-      </c>
       <c r="E22">
-        <v>2.409354091678639</v>
+        <v>2.066615940231964</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>43235</v>
+        <v>43145</v>
       </c>
       <c r="B23">
         <v>2018</v>
       </c>
       <c r="C23">
-        <v>2.393980601271961</v>
+        <v>1.297923389414657</v>
       </c>
       <c r="D23">
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>2.665653113374034</v>
+        <v>0.5447775838346658</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>43326</v>
+        <v>43235</v>
       </c>
       <c r="B24">
         <v>2018</v>
       </c>
       <c r="C24">
-        <v>2.36392865443209</v>
+        <v>1.63465618619294</v>
       </c>
       <c r="D24">
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>2.51610973142844</v>
+        <v>1.551857746372698</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>43418</v>
+        <v>43326</v>
       </c>
       <c r="B25">
         <v>2018</v>
       </c>
       <c r="C25">
-        <v>2.279995067217899</v>
+        <v>2.054458927584024</v>
       </c>
       <c r="D25">
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>1.436270032938491</v>
+        <v>3.441981941009353</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>43510</v>
+        <v>43418</v>
       </c>
       <c r="B26">
+        <v>2018</v>
+      </c>
+      <c r="C26">
+        <v>1.911050033324102</v>
+      </c>
+      <c r="D26">
         <v>2019</v>
       </c>
-      <c r="C26">
-        <v>0.6944584506185292</v>
-      </c>
-      <c r="D26">
-        <v>2020</v>
-      </c>
       <c r="E26">
-        <v>0</v>
+        <v>3.0862758122153</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>43600</v>
+        <v>43510</v>
       </c>
       <c r="B27">
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.143160568535695</v>
+        <v>1.064009474888983</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>1.191225634687099</v>
+        <v>0.03490120525229123</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>43691</v>
+        <v>43600</v>
       </c>
       <c r="B28">
         <v>2019</v>
       </c>
       <c r="C28">
-        <v>1.145828102013979</v>
+        <v>1.35261353265177</v>
       </c>
       <c r="D28">
         <v>2020</v>
       </c>
       <c r="E28">
-        <v>1.204528144756356</v>
+        <v>0.8024032016000104</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>43783</v>
+        <v>43691</v>
       </c>
       <c r="B29">
         <v>2019</v>
       </c>
       <c r="C29">
-        <v>1.025257057800411</v>
+        <v>1.668617211002466</v>
       </c>
       <c r="D29">
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>-0.3485201397161464</v>
+        <v>1.816757311461803</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>43875</v>
+        <v>43783</v>
       </c>
       <c r="B30">
+        <v>2019</v>
+      </c>
+      <c r="C30">
+        <v>1.457852003181337</v>
+      </c>
+      <c r="D30">
         <v>2020</v>
       </c>
-      <c r="C30">
-        <v>0.03226069066504245</v>
-      </c>
-      <c r="D30">
-        <v>2021</v>
-      </c>
       <c r="E30">
-        <v>-0.0945115579831568</v>
+        <v>-1.135072001636328</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>43966</v>
+        <v>43875</v>
       </c>
       <c r="B31">
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>1.094577902173044</v>
+        <v>1.60064760240497</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.751962538886721</v>
+        <v>2.904532120297287</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>44068</v>
+        <v>43966</v>
       </c>
       <c r="B32">
         <v>2020</v>
       </c>
       <c r="C32">
-        <v>-1.788000783651811</v>
+        <v>-2.082763426755907</v>
       </c>
       <c r="D32">
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>12.42071158254867</v>
+        <v>-5.866344937500023</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>44159</v>
+        <v>44068</v>
       </c>
       <c r="B33">
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-1.788000783651811</v>
+        <v>-3.357986809108382</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-2.185072418157197</v>
+        <v>11.62806235225531</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>44251</v>
+        <v>44159</v>
       </c>
       <c r="B34">
+        <v>2020</v>
+      </c>
+      <c r="C34">
+        <v>-3.258619210312885</v>
+      </c>
+      <c r="D34">
         <v>2021</v>
       </c>
-      <c r="C34">
-        <v>-3.865021082691489</v>
-      </c>
-      <c r="D34">
-        <v>2022</v>
-      </c>
       <c r="E34">
-        <v>-7.923811177410245</v>
+        <v>-2.878617960200258</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>44341</v>
+        <v>44251</v>
       </c>
       <c r="B35">
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-0.8524833869929083</v>
+        <v>-3.88825249955117</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>7.538591891386281</v>
+        <v>-7.923811177410267</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>44432</v>
+        <v>44341</v>
       </c>
       <c r="B36">
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-1.098964423305859</v>
+        <v>-0.1380317107957718</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>4.155466070907954</v>
+        <v>7.749494937649115</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>44525</v>
+        <v>44432</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-1.098964423305859</v>
+        <v>-0.1388955462784724</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>0.1520510801710673</v>
+        <v>4.532186626383039</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>44617</v>
+        <v>44525</v>
       </c>
       <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38">
+        <v>0.4255262881966981</v>
+      </c>
+      <c r="D38">
         <v>2022</v>
       </c>
-      <c r="C38">
-        <v>2.294803942302415</v>
-      </c>
-      <c r="D38">
-        <v>2023</v>
-      </c>
       <c r="E38">
-        <v>3.813885712818554</v>
+        <v>1.466936654457096</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>44706</v>
+        <v>44617</v>
       </c>
       <c r="B39">
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>2.063862931147242</v>
+        <v>3.299288015397095</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>2.657479386465855</v>
+        <v>3.813885712818554</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>44798</v>
+        <v>44706</v>
       </c>
       <c r="B40">
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>1.916393754370604</v>
+        <v>3.848999231984762</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>0.7598352367683914</v>
+        <v>2.866003071127765</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>44890</v>
+        <v>44798</v>
       </c>
       <c r="B41">
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>1.916393754370604</v>
+        <v>3.463320568938566</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>-1.920112490188108</v>
+        <v>0.9167463358189964</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>44981</v>
+        <v>44890</v>
       </c>
       <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>3.293290997728171</v>
+      </c>
+      <c r="D42">
         <v>2023</v>
       </c>
-      <c r="C42">
-        <v>-1.267120166691149</v>
-      </c>
-      <c r="D42">
-        <v>2024</v>
-      </c>
       <c r="E42">
-        <v>-2.262006095280444</v>
+        <v>-1.421977974472588</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>45071</v>
+        <v>44981</v>
       </c>
       <c r="B43">
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.6664444232280076</v>
+        <v>-0.4618455958399603</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>0.7566751776858283</v>
+        <v>-2.262006095280478</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>45163</v>
+        <v>45071</v>
       </c>
       <c r="B44">
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.7359525160776204</v>
+        <v>-0.3745803349312071</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>-0.1558873391691251</v>
+        <v>0.645722451525943</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>45254</v>
+        <v>45163</v>
       </c>
       <c r="B45">
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.7359525160776204</v>
+        <v>-0.2871245688614854</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.2528855719427181</v>
+        <v>-0.1008213866759977</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>45345</v>
+        <v>45254</v>
       </c>
       <c r="B46">
+        <v>2023</v>
+      </c>
+      <c r="C46">
+        <v>-0.2814561130375925</v>
+      </c>
+      <c r="D46">
         <v>2024</v>
       </c>
-      <c r="C46">
-        <v>-0.09009009139572255</v>
-      </c>
-      <c r="D46">
-        <v>2025</v>
-      </c>
       <c r="E46">
-        <v>0.1165462340710022</v>
+        <v>-0.3873858053678236</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>45436</v>
+        <v>45345</v>
       </c>
       <c r="B47">
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.2101112903678759</v>
+        <v>-0.4631846496550684</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-0.4835396987873164</v>
+        <v>0.11654623407098</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>45534</v>
+        <v>45436</v>
       </c>
       <c r="B48">
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.187152549496028</v>
+        <v>-1.091476630333243</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.1851873793273784</v>
+        <v>-0.4907904687545206</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>45618</v>
+        <v>45534</v>
       </c>
       <c r="B49">
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.187152549496028</v>
+        <v>-0.9636841177852018</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.3556031156755513</v>
+        <v>-0.1102571493959759</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>45713</v>
+        <v>45618</v>
       </c>
       <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>-0.6470065423293869</v>
+      </c>
+      <c r="D50">
         <v>2025</v>
       </c>
-      <c r="C50">
-        <v>0.8344475696255182</v>
-      </c>
-      <c r="D50">
-        <v>2026</v>
-      </c>
       <c r="E50">
-        <v>1.993341940459126</v>
+        <v>1.276847713071927</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>45800</v>
+        <v>45713</v>
       </c>
       <c r="B51">
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>0.6134856520689347</v>
+        <v>2.749014873207956</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>0.8852924154914676</v>
+        <v>1.993341940459148</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>45891</v>
+        <v>45800</v>
       </c>
       <c r="B52">
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>0.6150340712028246</v>
+        <v>1.626992717807862</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.9054119890892443</v>
+        <v>0.6270138473519316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B53">
+        <v>2025</v>
+      </c>
+      <c r="C53">
+        <v>2.053865394798304</v>
+      </c>
+      <c r="D53">
+        <v>2026</v>
+      </c>
+      <c r="E53">
+        <v>0.8600861498751833</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_full.xlsx
@@ -950,13 +950,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-3.357986809108382</v>
+        <v>-6.098343679991225</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>11.62806235225531</v>
+        <v>-24.68459749742853</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -973,7 +973,7 @@
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>-2.878617960200258</v>
+        <v>11.44905912635794</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-3.88825249955117</v>
+        <v>-1.289259938979503</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-7.923811177410267</v>
+        <v>-1.064625611893888</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-0.1380317107957718</v>
+        <v>-2.61626741352563</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>7.749494937649115</v>
+        <v>-4.982381489483345</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>2021</v>
       </c>
       <c r="C37">
-        <v>-0.1388955462784724</v>
+        <v>0.1754491998870789</v>
       </c>
       <c r="D37">
         <v>2022</v>
       </c>
       <c r="E37">
-        <v>4.532186626383039</v>
+        <v>8.818149619171688</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1041,7 +1041,7 @@
         <v>2022</v>
       </c>
       <c r="E38">
-        <v>1.466936654457096</v>
+        <v>7.992501921215989</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>3.299288015397095</v>
+        <v>1.017074315159494</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>3.813885712818554</v>
+        <v>-2.18096319765686</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>2022</v>
       </c>
       <c r="C40">
-        <v>3.848999231984762</v>
+        <v>4.740462114200339</v>
       </c>
       <c r="D40">
         <v>2023</v>
       </c>
       <c r="E40">
-        <v>2.866003071127765</v>
+        <v>7.292134478258427</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>3.463320568938566</v>
+        <v>3.634271709196701</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>0.9167463358189964</v>
+        <v>3.085654629190415</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1109,7 +1109,7 @@
         <v>2023</v>
       </c>
       <c r="E42">
-        <v>-1.421977974472588</v>
+        <v>2.385220017127665</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.4618455958399603</v>
+        <v>-0.4898151384455929</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-2.262006095280478</v>
+        <v>-2.33558184960051</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-0.3745803349312071</v>
+        <v>-1.298607950737329</v>
       </c>
       <c r="D44">
         <v>2024</v>
       </c>
       <c r="E44">
-        <v>0.645722451525943</v>
+        <v>-3.9629219377881</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.2871245688614854</v>
+        <v>-0.1325798828872071</v>
       </c>
       <c r="D45">
         <v>2024</v>
       </c>
       <c r="E45">
-        <v>-0.1008213866759977</v>
+        <v>1.927814683578033</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1177,7 +1177,7 @@
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-0.3873858053678236</v>
+        <v>-1.104428907745325</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>-0.4631846496550684</v>
+        <v>-0.9364538479926687</v>
       </c>
       <c r="D47">
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>0.11654623407098</v>
+        <v>-1.14919281543886</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-1.091476630333243</v>
+        <v>-0.9941519742633131</v>
       </c>
       <c r="D48">
         <v>2025</v>
       </c>
       <c r="E48">
-        <v>-0.4907904687545206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>-0.9636841177852018</v>
+        <v>-0.9516440563535733</v>
       </c>
       <c r="D49">
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>-0.1102571493959759</v>
+        <v>0.04770910652027727</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1245,7 +1245,7 @@
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>1.276847713071927</v>
+        <v>3.44988173406926</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>2.749014873207956</v>
+        <v>3.540789332106198</v>
       </c>
       <c r="D51">
         <v>2026</v>
       </c>
       <c r="E51">
-        <v>1.993341940459148</v>
+        <v>4.08949875228497</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>1.626992717807862</v>
+        <v>1.069485063776954</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>0.6270138473519316</v>
+        <v>-2.110726282892128</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.053865394798304</v>
+        <v>2.107899101287614</v>
       </c>
       <c r="D53">
         <v>2026</v>
       </c>
       <c r="E53">
-        <v>0.8600861498751833</v>
+        <v>1.554246181732633</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_full.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>1.144978573787081</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>2.918510996763723</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>3.09825757489699</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>7.865470614547343</v>
+        <v>7.865470614547321</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -456,14 +447,11 @@
       <c r="B4">
         <v>2008</v>
       </c>
-      <c r="C4">
-        <v>1.381024225294869</v>
-      </c>
       <c r="D4">
         <v>2009</v>
       </c>
       <c r="E4">
-        <v>4.264380119800992</v>
+        <v>4.26438011980097</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -480,7 +468,7 @@
         <v>2010</v>
       </c>
       <c r="E5">
-        <v>-6.760862998203643</v>
+        <v>-6.760862998203621</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +479,7 @@
         <v>2009</v>
       </c>
       <c r="C6">
-        <v>-0.8792832172735965</v>
+        <v>-0.8792832172735632</v>
       </c>
       <c r="D6">
         <v>2010</v>
@@ -508,7 +496,7 @@
         <v>2010</v>
       </c>
       <c r="C7">
-        <v>0.5799958470386946</v>
+        <v>0.5799958470386724</v>
       </c>
       <c r="D7">
         <v>2011</v>
@@ -525,13 +513,13 @@
         <v>2010</v>
       </c>
       <c r="C8">
-        <v>0.9337833426867448</v>
+        <v>0.9337833426867226</v>
       </c>
       <c r="D8">
         <v>2011</v>
       </c>
       <c r="E8">
-        <v>2.730731696345146</v>
+        <v>2.730731696345212</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -559,13 +547,13 @@
         <v>2011</v>
       </c>
       <c r="C10">
-        <v>2.791140000794279</v>
+        <v>2.791140000794257</v>
       </c>
       <c r="D10">
         <v>2012</v>
       </c>
       <c r="E10">
-        <v>1.683857142130885</v>
+        <v>1.68385714213084</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +564,13 @@
         <v>2012</v>
       </c>
       <c r="C11">
-        <v>0.5930547804883668</v>
+        <v>0.5930547804883446</v>
       </c>
       <c r="D11">
         <v>2013</v>
       </c>
       <c r="E11">
-        <v>-1.194610791900008</v>
+        <v>-1.194610791899986</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,7 +581,7 @@
         <v>2012</v>
       </c>
       <c r="C12">
-        <v>0.4451370000809973</v>
+        <v>0.4451370000809529</v>
       </c>
       <c r="D12">
         <v>2013</v>
@@ -633,7 +621,7 @@
         <v>2014</v>
       </c>
       <c r="E14">
-        <v>2.553470871380537</v>
+        <v>2.553470871380514</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -650,7 +638,7 @@
         <v>2015</v>
       </c>
       <c r="E15">
-        <v>7.617133650412211</v>
+        <v>7.617133650412167</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +655,7 @@
         <v>2015</v>
       </c>
       <c r="E16">
-        <v>-0.434146007584113</v>
+        <v>-0.4341460075841019</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +666,13 @@
         <v>2015</v>
       </c>
       <c r="C17">
-        <v>1.670328650030184</v>
+        <v>1.670328650030162</v>
       </c>
       <c r="D17">
         <v>2016</v>
       </c>
       <c r="E17">
-        <v>2.037906845818616</v>
+        <v>2.037906845818593</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +689,7 @@
         <v>2016</v>
       </c>
       <c r="E18">
-        <v>2.383242923544526</v>
+        <v>2.383242923544548</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +700,7 @@
         <v>2016</v>
       </c>
       <c r="C19">
-        <v>2.562791874943371</v>
+        <v>2.562791874943349</v>
       </c>
       <c r="D19">
         <v>2017</v>
@@ -729,7 +717,7 @@
         <v>2016</v>
       </c>
       <c r="C20">
-        <v>2.204449574611278</v>
+        <v>2.2044495746113</v>
       </c>
       <c r="D20">
         <v>2017</v>
@@ -746,13 +734,13 @@
         <v>2017</v>
       </c>
       <c r="C21">
-        <v>1.526411006965533</v>
+        <v>1.526411006965578</v>
       </c>
       <c r="D21">
         <v>2018</v>
       </c>
       <c r="E21">
-        <v>0.6601843988560674</v>
+        <v>0.6601843988560452</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -769,7 +757,7 @@
         <v>2018</v>
       </c>
       <c r="E22">
-        <v>2.066615940231964</v>
+        <v>2.066615940231942</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -786,7 +774,7 @@
         <v>2019</v>
       </c>
       <c r="E23">
-        <v>0.5447775838346658</v>
+        <v>0.5447775838346436</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -803,7 +791,7 @@
         <v>2019</v>
       </c>
       <c r="E24">
-        <v>1.551857746372698</v>
+        <v>1.55185774637272</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -820,7 +808,7 @@
         <v>2019</v>
       </c>
       <c r="E25">
-        <v>3.441981941009353</v>
+        <v>3.441981941009331</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -837,7 +825,7 @@
         <v>2019</v>
       </c>
       <c r="E26">
-        <v>3.0862758122153</v>
+        <v>3.086275812215322</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +836,13 @@
         <v>2019</v>
       </c>
       <c r="C27">
-        <v>1.064009474888983</v>
+        <v>1.064009474888961</v>
       </c>
       <c r="D27">
         <v>2020</v>
       </c>
       <c r="E27">
-        <v>0.03490120525229123</v>
+        <v>0.03490120525226903</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -888,7 +876,7 @@
         <v>2020</v>
       </c>
       <c r="E29">
-        <v>1.816757311461803</v>
+        <v>1.816757311461781</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -905,7 +893,7 @@
         <v>2020</v>
       </c>
       <c r="E30">
-        <v>-1.135072001636328</v>
+        <v>-1.135072001636317</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +904,13 @@
         <v>2020</v>
       </c>
       <c r="C31">
-        <v>1.60064760240497</v>
+        <v>1.600647602405014</v>
       </c>
       <c r="D31">
         <v>2021</v>
       </c>
       <c r="E31">
-        <v>2.904532120297287</v>
+        <v>2.904532120297265</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -939,7 +927,7 @@
         <v>2021</v>
       </c>
       <c r="E32">
-        <v>-5.866344937500023</v>
+        <v>-5.866344937500012</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +938,13 @@
         <v>2020</v>
       </c>
       <c r="C33">
-        <v>-6.098343679991225</v>
+        <v>-6.098343679991236</v>
       </c>
       <c r="D33">
         <v>2021</v>
       </c>
       <c r="E33">
-        <v>-24.68459749742853</v>
+        <v>-24.68459749742852</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +955,13 @@
         <v>2020</v>
       </c>
       <c r="C34">
-        <v>-3.258619210312885</v>
+        <v>-3.258619210312896</v>
       </c>
       <c r="D34">
         <v>2021</v>
       </c>
       <c r="E34">
-        <v>11.44905912635794</v>
+        <v>11.44905912635792</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +972,13 @@
         <v>2021</v>
       </c>
       <c r="C35">
-        <v>-1.289259938979503</v>
+        <v>-1.289259938979481</v>
       </c>
       <c r="D35">
         <v>2022</v>
       </c>
       <c r="E35">
-        <v>-1.064625611893888</v>
+        <v>-1.064625611893855</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +989,13 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>-2.61626741352563</v>
+        <v>-2.616267413525608</v>
       </c>
       <c r="D36">
         <v>2022</v>
       </c>
       <c r="E36">
-        <v>-4.982381489483345</v>
+        <v>-4.982381489483368</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1035,7 +1023,7 @@
         <v>2021</v>
       </c>
       <c r="C38">
-        <v>0.4255262881966981</v>
+        <v>0.4255262881966759</v>
       </c>
       <c r="D38">
         <v>2022</v>
@@ -1052,13 +1040,13 @@
         <v>2022</v>
       </c>
       <c r="C39">
-        <v>1.017074315159494</v>
+        <v>1.017074315159539</v>
       </c>
       <c r="D39">
         <v>2023</v>
       </c>
       <c r="E39">
-        <v>-2.18096319765686</v>
+        <v>-2.180963197656882</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1086,13 +1074,13 @@
         <v>2022</v>
       </c>
       <c r="C41">
-        <v>3.634271709196701</v>
+        <v>3.634271709196679</v>
       </c>
       <c r="D41">
         <v>2023</v>
       </c>
       <c r="E41">
-        <v>3.085654629190415</v>
+        <v>3.085654629190437</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1120,13 +1108,13 @@
         <v>2023</v>
       </c>
       <c r="C43">
-        <v>-0.4898151384455929</v>
+        <v>-0.4898151384455596</v>
       </c>
       <c r="D43">
         <v>2024</v>
       </c>
       <c r="E43">
-        <v>-2.33558184960051</v>
+        <v>-2.335581849600521</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,7 +1125,7 @@
         <v>2023</v>
       </c>
       <c r="C44">
-        <v>-1.298607950737329</v>
+        <v>-1.298607950737285</v>
       </c>
       <c r="D44">
         <v>2024</v>
@@ -1154,7 +1142,7 @@
         <v>2023</v>
       </c>
       <c r="C45">
-        <v>-0.1325798828872071</v>
+        <v>-0.1325798828871849</v>
       </c>
       <c r="D45">
         <v>2024</v>
@@ -1171,13 +1159,13 @@
         <v>2023</v>
       </c>
       <c r="C46">
-        <v>-0.2814561130375925</v>
+        <v>-0.2814561130375703</v>
       </c>
       <c r="D46">
         <v>2024</v>
       </c>
       <c r="E46">
-        <v>-1.104428907745325</v>
+        <v>-1.104428907745314</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1194,7 +1182,7 @@
         <v>2025</v>
       </c>
       <c r="E47">
-        <v>-1.14919281543886</v>
+        <v>-1.149192815438882</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,7 +1193,7 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>-0.9941519742633131</v>
+        <v>-0.994151974263302</v>
       </c>
       <c r="D48">
         <v>2025</v>
@@ -1228,7 +1216,7 @@
         <v>2025</v>
       </c>
       <c r="E49">
-        <v>0.04770910652027727</v>
+        <v>0.04770910652025506</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1239,13 +1227,13 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>-0.6470065423293869</v>
+        <v>-0.6470065423293758</v>
       </c>
       <c r="D50">
         <v>2025</v>
       </c>
       <c r="E50">
-        <v>3.44988173406926</v>
+        <v>3.449881734069282</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,7 +1244,7 @@
         <v>2025</v>
       </c>
       <c r="C51">
-        <v>3.540789332106198</v>
+        <v>3.540789332106176</v>
       </c>
       <c r="D51">
         <v>2026</v>
@@ -1273,13 +1261,13 @@
         <v>2025</v>
       </c>
       <c r="C52">
-        <v>1.069485063776954</v>
+        <v>1.069485063776932</v>
       </c>
       <c r="D52">
         <v>2026</v>
       </c>
       <c r="E52">
-        <v>-2.110726282892128</v>
+        <v>-2.110726282892139</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,7 +1278,7 @@
         <v>2025</v>
       </c>
       <c r="C53">
-        <v>2.107899101287614</v>
+        <v>2.107899101287591</v>
       </c>
       <c r="D53">
         <v>2026</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1287,6 +1287,23 @@
         <v>1.554246181732633</v>
       </c>
     </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B54">
+        <v>2025</v>
+      </c>
+      <c r="C54">
+        <v>2.043309689777173</v>
+      </c>
+      <c r="D54">
+        <v>2026</v>
+      </c>
+      <c r="E54">
+        <v>1.199077969291551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
